--- a/University_Research_Mastersheet.xlsx
+++ b/University_Research_Mastersheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\files\Mastiff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E881A316-9B17-4F1A-A956-D0C38B7F94FC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487558CD-CC5D-4D9A-A029-13167EE23463}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{92817DAA-054E-466C-9268-5E51AAAFA81A}"/>
   </bookViews>
@@ -29,7 +29,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Rankings_Exp!$A$1:$AN$75</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Universities Selection'!$A$1:$AH$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Universities Selection'!$A$1:$AO$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Yocket Data'!$A$1:$Q$45</definedName>
     <definedName name="A1\">'Universities Selection'!$C$4</definedName>
     <definedName name="AI_Rank">CS_Ranking_Lkp!$B$3:$E$211</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2576" uniqueCount="920">
   <si>
     <t>S.No.</t>
   </si>
@@ -2297,9 +2297,6 @@
   </si>
   <si>
     <t>Suggests requirement of pre requisite courses but has students from varied backgrounds</t>
-  </si>
-  <si>
-    <t>Has concentration in Data Science and looks good</t>
   </si>
   <si>
     <t>Minor deficiencies in undergraduate preparation are acceptable and can be removed in first year of graduate study</t>
@@ -2835,6 +2832,33 @@
   </si>
   <si>
     <t>Instructions for application fee waiver for 2nd program: https://34pd4s1qv42731f3e23impou-wpengine.netdna-ssl.com/wp-content/uploads/2017/07/Application-Fee-Waiver-Instructions.pdf</t>
+  </si>
+  <si>
+    <t>Has concentration in Data Science and looks good. Apply to concentration after admission.</t>
+  </si>
+  <si>
+    <t>Might have a small program for MS CS</t>
+  </si>
+  <si>
+    <t>Linkedin Ratio</t>
+  </si>
+  <si>
+    <t>Linkedin Alumni</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Apple</t>
   </si>
 </sst>
 </file>
@@ -3086,7 +3110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3287,6 +3311,24 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3305,22 +3347,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3365,15 +3398,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3690,16 +3716,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFE0D48-F788-4259-8D06-3E7E740419B8}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AH49"/>
+  <dimension ref="A1:AO49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="18" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="6" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="39.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
@@ -3729,24 +3757,25 @@
     <col min="29" max="29" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="40.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="53.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="18"/>
+    <col min="32" max="38" width="12.5703125" style="6" customWidth="1"/>
+    <col min="39" max="39" width="40.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="53.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="94" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" s="94" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -3761,7 +3790,7 @@
         <v>276</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>244</v>
@@ -3794,10 +3823,10 @@
         <v>5</v>
       </c>
       <c r="T1" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>785</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>786</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>259</v>
@@ -3827,19 +3856,40 @@
         <v>638</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AF1" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="AM1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AG1" s="93" t="s">
+      <c r="AN1" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -3848,7 +3898,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>58</v>
@@ -3863,7 +3913,7 @@
         <v>80</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>701</v>
@@ -3934,15 +3984,37 @@
       <c r="AE2" s="31">
         <v>0</v>
       </c>
-      <c r="AF2" s="31" t="s">
+      <c r="AF2" s="31">
+        <v>28752</v>
+      </c>
+      <c r="AG2" s="31">
+        <v>1404</v>
+      </c>
+      <c r="AH2" s="31">
+        <v>600</v>
+      </c>
+      <c r="AI2" s="31">
+        <v>487</v>
+      </c>
+      <c r="AJ2" s="31">
+        <v>431</v>
+      </c>
+      <c r="AK2" s="31">
+        <v>383</v>
+      </c>
+      <c r="AL2" s="31">
+        <f>ROUND(SUM(AG2:AK2)/AF2,3)*100</f>
+        <v>11.5</v>
+      </c>
+      <c r="AM2" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="AG2" s="95">
+      <c r="AN2" s="95">
         <v>13</v>
       </c>
-      <c r="AH2" s="31"/>
-    </row>
-    <row r="3" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO2" s="31"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -3951,7 +4023,7 @@
         <v>373</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>99</v>
@@ -3966,7 +4038,7 @@
         <v>50</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J3" s="31" t="s">
         <v>253</v>
@@ -4035,15 +4107,37 @@
       <c r="AE3" s="31">
         <v>0</v>
       </c>
-      <c r="AF3" s="31" t="s">
-        <v>758</v>
-      </c>
-      <c r="AG3" s="95">
+      <c r="AF3" s="82">
+        <v>44152</v>
+      </c>
+      <c r="AG3" s="31">
+        <v>1365</v>
+      </c>
+      <c r="AH3" s="31">
+        <v>399</v>
+      </c>
+      <c r="AI3" s="31">
+        <v>415</v>
+      </c>
+      <c r="AJ3" s="31">
+        <v>345</v>
+      </c>
+      <c r="AK3" s="31">
+        <v>524</v>
+      </c>
+      <c r="AL3" s="31">
+        <f t="shared" ref="AL3:AL45" si="7">ROUND(SUM(AG3:AK3)/AF3,3)*100</f>
+        <v>6.9</v>
+      </c>
+      <c r="AM3" s="31" t="s">
+        <v>757</v>
+      </c>
+      <c r="AN3" s="95">
         <v>18</v>
       </c>
-      <c r="AH3" s="31"/>
-    </row>
-    <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO3" s="31"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -4052,7 +4146,7 @@
         <v>118</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E4" s="72" t="s">
         <v>144</v>
@@ -4067,7 +4161,7 @@
         <v>70</v>
       </c>
       <c r="I4" s="72" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J4" s="72" t="s">
         <v>684</v>
@@ -4134,15 +4228,37 @@
       <c r="AE4" s="72">
         <v>0</v>
       </c>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="96">
+      <c r="AF4" s="143">
+        <v>22720</v>
+      </c>
+      <c r="AG4" s="72">
+        <v>654</v>
+      </c>
+      <c r="AH4" s="72">
+        <v>365</v>
+      </c>
+      <c r="AI4" s="72">
+        <v>234</v>
+      </c>
+      <c r="AJ4" s="72">
+        <v>281</v>
+      </c>
+      <c r="AK4" s="72">
+        <v>141</v>
+      </c>
+      <c r="AL4" s="72">
+        <f t="shared" si="7"/>
+        <v>7.3999999999999995</v>
+      </c>
+      <c r="AM4" s="72"/>
+      <c r="AN4" s="96">
         <v>9</v>
       </c>
-      <c r="AH4" s="72" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO4" s="72" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -4151,7 +4267,7 @@
         <v>122</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>147</v>
@@ -4166,7 +4282,7 @@
         <v>50</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J5" s="31" t="s">
         <v>242</v>
@@ -4235,15 +4351,37 @@
       <c r="AE5" s="31">
         <v>0</v>
       </c>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="95">
+      <c r="AF5" s="82">
+        <v>27864</v>
+      </c>
+      <c r="AG5" s="31">
+        <v>482</v>
+      </c>
+      <c r="AH5" s="31">
+        <v>474</v>
+      </c>
+      <c r="AI5" s="31">
+        <v>176</v>
+      </c>
+      <c r="AJ5" s="31">
+        <v>293</v>
+      </c>
+      <c r="AK5" s="31">
+        <v>238</v>
+      </c>
+      <c r="AL5" s="31">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="AM5" s="31"/>
+      <c r="AN5" s="95">
         <v>15</v>
       </c>
-      <c r="AH5" s="31" t="s">
+      <c r="AO5" s="31" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="6" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -4252,7 +4390,7 @@
         <v>201</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>67</v>
@@ -4267,7 +4405,7 @@
         <v>80</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>245</v>
@@ -4336,13 +4474,35 @@
       <c r="AE6" s="2">
         <v>5</v>
       </c>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="97">
+      <c r="AF6" s="12">
+        <v>37172</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>666</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>644</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>243</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>444</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL6" s="11">
+        <f t="shared" si="7"/>
+        <v>6.1</v>
+      </c>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="97">
         <v>20</v>
       </c>
-      <c r="AH6" s="2"/>
-    </row>
-    <row r="7" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO6" s="2"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -4351,7 +4511,7 @@
         <v>120</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>65</v>
@@ -4366,7 +4526,7 @@
         <v>50</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>242</v>
@@ -4433,13 +4593,35 @@
       <c r="AE7" s="2">
         <v>0</v>
       </c>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="97">
+      <c r="AF7" s="12">
+        <v>36192</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>678</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>614</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>273</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>217</v>
+      </c>
+      <c r="AL7" s="11">
+        <f t="shared" si="7"/>
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="97">
         <v>20</v>
       </c>
-      <c r="AH7" s="2"/>
-    </row>
-    <row r="8" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO7" s="2"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -4448,7 +4630,7 @@
         <v>387</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>59</v>
@@ -4463,7 +4645,7 @@
         <v>20</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J8" s="31" t="s">
         <v>245</v>
@@ -4534,15 +4716,37 @@
       <c r="AE8" s="31">
         <v>0</v>
       </c>
-      <c r="AF8" s="31" t="s">
+      <c r="AF8" s="82">
+        <v>17206</v>
+      </c>
+      <c r="AG8" s="31">
+        <v>482</v>
+      </c>
+      <c r="AH8" s="31">
+        <v>219</v>
+      </c>
+      <c r="AI8" s="31">
+        <v>204</v>
+      </c>
+      <c r="AJ8" s="31">
+        <v>187</v>
+      </c>
+      <c r="AK8" s="31">
+        <v>70</v>
+      </c>
+      <c r="AL8" s="31">
+        <f t="shared" si="7"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="AM8" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="AG8" s="95">
+      <c r="AN8" s="95">
         <v>6</v>
       </c>
-      <c r="AH8" s="31"/>
-    </row>
-    <row r="9" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO8" s="31"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -4551,7 +4755,7 @@
         <v>378</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>140</v>
@@ -4566,7 +4770,7 @@
         <v>80</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J9" s="31" t="s">
         <v>253</v>
@@ -4637,15 +4841,37 @@
       <c r="AE9" s="31">
         <v>0</v>
       </c>
-      <c r="AF9" s="31" t="s">
+      <c r="AF9" s="82">
+        <v>28643</v>
+      </c>
+      <c r="AG9" s="31">
+        <v>656</v>
+      </c>
+      <c r="AH9" s="31">
+        <v>320</v>
+      </c>
+      <c r="AI9" s="31">
+        <v>256</v>
+      </c>
+      <c r="AJ9" s="31">
+        <v>263</v>
+      </c>
+      <c r="AK9" s="31">
+        <v>213</v>
+      </c>
+      <c r="AL9" s="31">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="AM9" s="31" t="s">
         <v>712</v>
       </c>
-      <c r="AG9" s="95">
+      <c r="AN9" s="95">
         <v>12</v>
       </c>
-      <c r="AH9" s="31"/>
-    </row>
-    <row r="10" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO9" s="31"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -4654,7 +4880,7 @@
         <v>79</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E10" s="72" t="s">
         <v>103</v>
@@ -4669,7 +4895,7 @@
         <v>60</v>
       </c>
       <c r="I10" s="72" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J10" s="72" t="s">
         <v>725</v>
@@ -4740,13 +4966,35 @@
       <c r="AE10" s="72">
         <v>0</v>
       </c>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="96">
+      <c r="AF10" s="143">
+        <v>15110</v>
+      </c>
+      <c r="AG10" s="72">
+        <v>343</v>
+      </c>
+      <c r="AH10" s="72">
+        <v>251</v>
+      </c>
+      <c r="AI10" s="72">
+        <v>132</v>
+      </c>
+      <c r="AJ10" s="72">
+        <v>173</v>
+      </c>
+      <c r="AK10" s="72">
+        <v>84</v>
+      </c>
+      <c r="AL10" s="72">
+        <f t="shared" si="7"/>
+        <v>6.5</v>
+      </c>
+      <c r="AM10" s="72"/>
+      <c r="AN10" s="96">
         <v>6</v>
       </c>
-      <c r="AH10" s="72"/>
-    </row>
-    <row r="11" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO10" s="72"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -4755,7 +5003,7 @@
         <v>119</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>134</v>
@@ -4770,7 +5018,7 @@
         <v>40</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>242</v>
@@ -4837,15 +5085,37 @@
       <c r="AE11" s="2">
         <v>1</v>
       </c>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="97">
+      <c r="AF11" s="12">
+        <v>33648</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>415</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>448</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>173</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>278</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL11" s="11">
+        <f t="shared" si="7"/>
+        <v>4.7</v>
+      </c>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="97">
         <v>18</v>
       </c>
-      <c r="AH11" s="2" t="s">
+      <c r="AO11" s="2" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="12" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -4854,10 +5124,10 @@
         <v>379</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>94</v>
@@ -4869,7 +5139,7 @@
         <v>70</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -4938,13 +5208,35 @@
       <c r="AE12" s="2">
         <v>4</v>
       </c>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="97">
+      <c r="AF12" s="12">
+        <v>27277</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>600</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>260</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>224</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>229</v>
+      </c>
+      <c r="AL12" s="11">
+        <f t="shared" si="7"/>
+        <v>6.1</v>
+      </c>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="97">
         <v>19</v>
       </c>
-      <c r="AH12" s="2"/>
-    </row>
-    <row r="13" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO12" s="2"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -4953,7 +5245,7 @@
         <v>123</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>140</v>
@@ -4968,7 +5260,7 @@
         <v>70</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J13" s="31" t="s">
         <v>242</v>
@@ -5041,13 +5333,35 @@
       <c r="AE13" s="31">
         <v>2</v>
       </c>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="95">
+      <c r="AF13" s="82">
+        <v>32283</v>
+      </c>
+      <c r="AG13" s="31">
+        <v>660</v>
+      </c>
+      <c r="AH13" s="31">
+        <v>503</v>
+      </c>
+      <c r="AI13" s="31">
+        <v>258</v>
+      </c>
+      <c r="AJ13" s="31">
+        <v>630</v>
+      </c>
+      <c r="AK13" s="31">
+        <v>348</v>
+      </c>
+      <c r="AL13" s="31">
+        <f t="shared" si="7"/>
+        <v>7.3999999999999995</v>
+      </c>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="95">
         <v>8</v>
       </c>
-      <c r="AH13" s="31"/>
-    </row>
-    <row r="14" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO13" s="31"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -5056,10 +5370,10 @@
         <v>380</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>127</v>
@@ -5071,10 +5385,10 @@
         <v>80</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -5140,13 +5454,35 @@
       <c r="AE14" s="2">
         <v>5</v>
       </c>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="97">
+      <c r="AF14" s="12">
+        <v>30675</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>272</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>268</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>184</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>88</v>
+      </c>
+      <c r="AL14" s="11">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="97">
         <v>17</v>
       </c>
-      <c r="AH14" s="2"/>
-    </row>
-    <row r="15" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO14" s="2"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -5155,7 +5491,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>69</v>
@@ -5170,7 +5506,7 @@
         <v>50</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J15" s="31" t="s">
         <v>247</v>
@@ -5239,15 +5575,37 @@
       <c r="AE15" s="31">
         <v>1</v>
       </c>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="95">
+      <c r="AF15" s="82">
+        <v>25784</v>
+      </c>
+      <c r="AG15" s="31">
+        <v>384</v>
+      </c>
+      <c r="AH15" s="31">
+        <v>162</v>
+      </c>
+      <c r="AI15" s="31">
+        <v>119</v>
+      </c>
+      <c r="AJ15" s="31">
+        <v>250</v>
+      </c>
+      <c r="AK15" s="31">
+        <v>80</v>
+      </c>
+      <c r="AL15" s="31">
+        <f t="shared" si="7"/>
+        <v>3.9</v>
+      </c>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="95">
         <v>10</v>
       </c>
-      <c r="AH15" s="31" t="s">
+      <c r="AO15" s="31" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -5256,7 +5614,7 @@
         <v>375</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>131</v>
@@ -5271,10 +5629,10 @@
         <v>70</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="53" t="s">
@@ -5339,17 +5697,39 @@
       <c r="AE16" s="2">
         <v>0</v>
       </c>
-      <c r="AF16" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="AG16" s="97">
+      <c r="AF16" s="12">
+        <v>22909</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>287</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>278</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>119</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>114</v>
+      </c>
+      <c r="AL16" s="11">
+        <f t="shared" si="7"/>
+        <v>4.2</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="AN16" s="97">
         <v>18</v>
       </c>
-      <c r="AH16" s="2" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AO16" s="2" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -5358,7 +5738,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>81</v>
@@ -5373,7 +5753,7 @@
         <v>60</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>251</v>
@@ -5442,15 +5822,37 @@
       <c r="AE17" s="2">
         <v>0</v>
       </c>
-      <c r="AF17" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="AG17" s="97">
+      <c r="AF17" s="12">
+        <v>33085</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>265</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>401</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>216</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>156</v>
+      </c>
+      <c r="AL17" s="11">
+        <f t="shared" si="7"/>
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="AM17" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="AN17" s="97">
         <v>12</v>
       </c>
-      <c r="AH17" s="2"/>
-    </row>
-    <row r="18" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO17" s="2"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -5459,7 +5861,7 @@
         <v>126</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>149</v>
@@ -5474,7 +5876,7 @@
         <v>40</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J18" s="28" t="s">
         <v>651</v>
@@ -5541,17 +5943,39 @@
       <c r="AE18" s="28">
         <v>0</v>
       </c>
-      <c r="AF18" s="28" t="s">
+      <c r="AF18" s="144">
+        <v>16038</v>
+      </c>
+      <c r="AG18" s="28">
+        <v>215</v>
+      </c>
+      <c r="AH18" s="28">
+        <v>151</v>
+      </c>
+      <c r="AI18" s="28">
+        <v>57</v>
+      </c>
+      <c r="AJ18" s="28">
+        <v>111</v>
+      </c>
+      <c r="AK18" s="28">
+        <v>63</v>
+      </c>
+      <c r="AL18" s="28">
+        <f t="shared" si="7"/>
+        <v>3.6999999999999997</v>
+      </c>
+      <c r="AM18" s="28" t="s">
         <v>659</v>
       </c>
-      <c r="AG18" s="98">
+      <c r="AN18" s="98">
         <v>7</v>
       </c>
-      <c r="AH18" s="28" t="s">
+      <c r="AO18" s="28" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -5560,7 +5984,7 @@
         <v>121</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>146</v>
@@ -5575,7 +5999,7 @@
         <v>50</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J19" s="31" t="s">
         <v>684</v>
@@ -5642,15 +6066,37 @@
       <c r="AE19" s="31">
         <v>0</v>
       </c>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="95">
+      <c r="AF19" s="82">
+        <v>101061</v>
+      </c>
+      <c r="AG19" s="31">
+        <v>437</v>
+      </c>
+      <c r="AH19" s="31">
+        <v>179</v>
+      </c>
+      <c r="AI19" s="31">
+        <v>184</v>
+      </c>
+      <c r="AJ19" s="31">
+        <v>158</v>
+      </c>
+      <c r="AK19" s="31">
+        <v>117</v>
+      </c>
+      <c r="AL19" s="31">
+        <f t="shared" si="7"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="AM19" s="31"/>
+      <c r="AN19" s="95">
         <v>6</v>
       </c>
-      <c r="AH19" s="31" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AO19" s="31" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -5659,7 +6105,7 @@
         <v>402</v>
       </c>
       <c r="D20" s="107" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>88</v>
@@ -5674,7 +6120,7 @@
         <v>60</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>253</v>
@@ -5743,13 +6189,35 @@
       <c r="AE20" s="2">
         <v>2</v>
       </c>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="97">
+      <c r="AF20" s="12">
+        <v>21661</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>350</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>215</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ20" s="2">
+        <v>250</v>
+      </c>
+      <c r="AK20" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL20" s="11">
+        <f t="shared" si="7"/>
+        <v>4.8</v>
+      </c>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="97">
         <v>18</v>
       </c>
-      <c r="AH20" s="2"/>
-    </row>
-    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO20" s="2"/>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -5758,7 +6226,7 @@
         <v>124</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>141</v>
@@ -5773,7 +6241,7 @@
         <v>60</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J21" s="31" t="s">
         <v>336</v>
@@ -5840,15 +6308,37 @@
       <c r="AE21" s="31">
         <v>0</v>
       </c>
-      <c r="AF21" s="31"/>
-      <c r="AG21" s="95">
+      <c r="AF21" s="82">
+        <v>23848</v>
+      </c>
+      <c r="AG21" s="31">
+        <v>135</v>
+      </c>
+      <c r="AH21" s="31">
+        <v>188</v>
+      </c>
+      <c r="AI21" s="31">
+        <v>35</v>
+      </c>
+      <c r="AJ21" s="31">
+        <v>110</v>
+      </c>
+      <c r="AK21" s="31">
+        <v>67</v>
+      </c>
+      <c r="AL21" s="31">
+        <f t="shared" si="7"/>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="AM21" s="31"/>
+      <c r="AN21" s="95">
         <v>10</v>
       </c>
-      <c r="AH21" s="31" t="s">
+      <c r="AO21" s="31" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -5857,7 +6347,7 @@
         <v>125</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>148</v>
@@ -5872,7 +6362,7 @@
         <v>60</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J22" s="31" t="s">
         <v>242</v>
@@ -5941,17 +6431,39 @@
       <c r="AE22" s="31">
         <v>0</v>
       </c>
-      <c r="AF22" s="31" t="s">
+      <c r="AF22" s="82">
+        <v>10625</v>
+      </c>
+      <c r="AG22" s="31">
+        <v>224</v>
+      </c>
+      <c r="AH22" s="31">
+        <v>204</v>
+      </c>
+      <c r="AI22" s="31">
+        <v>81</v>
+      </c>
+      <c r="AJ22" s="31">
+        <v>109</v>
+      </c>
+      <c r="AK22" s="31">
+        <v>57</v>
+      </c>
+      <c r="AL22" s="31">
+        <f t="shared" si="7"/>
+        <v>6.4</v>
+      </c>
+      <c r="AM22" s="31" t="s">
         <v>661</v>
       </c>
-      <c r="AG22" s="95">
+      <c r="AN22" s="95">
         <v>6</v>
       </c>
-      <c r="AH22" s="31" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AO22" s="31" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -5960,7 +6472,7 @@
         <v>110</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>132</v>
@@ -5975,7 +6487,7 @@
         <v>70</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>725</v>
@@ -6044,15 +6556,37 @@
       <c r="AE23" s="2">
         <v>3</v>
       </c>
-      <c r="AF23" s="2" t="s">
+      <c r="AF23" s="12">
+        <v>14415</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>139</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>128</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>53</v>
+      </c>
+      <c r="AJ23" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK23" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL23" s="11">
+        <f t="shared" si="7"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="AM23" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="AG23" s="97">
+      <c r="AN23" s="97">
         <v>17</v>
       </c>
-      <c r="AH23" s="2"/>
-    </row>
-    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO23" s="2"/>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -6061,7 +6595,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E24" s="28" t="s">
         <v>91</v>
@@ -6076,7 +6610,7 @@
         <v>60</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
@@ -6145,15 +6679,37 @@
       <c r="AE24" s="28">
         <v>0</v>
       </c>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="98">
+      <c r="AF24" s="144">
+        <v>7454</v>
+      </c>
+      <c r="AG24" s="28">
+        <v>130</v>
+      </c>
+      <c r="AH24" s="28">
+        <v>65</v>
+      </c>
+      <c r="AI24" s="28">
+        <v>43</v>
+      </c>
+      <c r="AJ24" s="28">
+        <v>57</v>
+      </c>
+      <c r="AK24" s="28">
+        <v>30</v>
+      </c>
+      <c r="AL24" s="28">
+        <f t="shared" si="7"/>
+        <v>4.3999999999999995</v>
+      </c>
+      <c r="AM24" s="28"/>
+      <c r="AN24" s="98">
         <v>6</v>
       </c>
-      <c r="AH24" s="28" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO24" s="28" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -6162,7 +6718,7 @@
         <v>18</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E25" s="28" t="s">
         <v>72</v>
@@ -6177,7 +6733,7 @@
         <v>60</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J25" s="28" t="s">
         <v>248</v>
@@ -6246,13 +6802,35 @@
       <c r="AE25" s="28">
         <v>0</v>
       </c>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="98">
+      <c r="AF25" s="144">
+        <v>13596</v>
+      </c>
+      <c r="AG25" s="28">
+        <v>179</v>
+      </c>
+      <c r="AH25" s="28">
+        <v>176</v>
+      </c>
+      <c r="AI25" s="28">
+        <v>74</v>
+      </c>
+      <c r="AJ25" s="28">
+        <v>112</v>
+      </c>
+      <c r="AK25" s="28">
+        <v>60</v>
+      </c>
+      <c r="AL25" s="28">
+        <f t="shared" si="7"/>
+        <v>4.3999999999999995</v>
+      </c>
+      <c r="AM25" s="28"/>
+      <c r="AN25" s="98">
         <v>7</v>
       </c>
-      <c r="AH25" s="28"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AO25" s="28"/>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -6261,7 +6839,7 @@
         <v>407</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>128</v>
@@ -6276,7 +6854,7 @@
         <v>60</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>253</v>
@@ -6345,15 +6923,37 @@
       <c r="AE26" s="2">
         <v>0</v>
       </c>
-      <c r="AF26" s="2" t="s">
+      <c r="AF26" s="12">
+        <v>18629</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>246</v>
+      </c>
+      <c r="AH26" s="2">
+        <v>121</v>
+      </c>
+      <c r="AI26" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ26" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK26" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL26" s="11">
+        <f t="shared" si="7"/>
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="AM26" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="AG26" s="97">
+      <c r="AN26" s="97">
         <v>20</v>
       </c>
-      <c r="AH26" s="2"/>
-    </row>
-    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO26" s="2"/>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -6362,10 +6962,10 @@
         <v>108</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F27" s="28" t="s">
         <v>136</v>
@@ -6377,10 +6977,10 @@
         <v>60</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K27" s="28"/>
       <c r="L27" s="28"/>
@@ -6446,22 +7046,44 @@
       <c r="AE27" s="28">
         <v>0</v>
       </c>
-      <c r="AF27" s="28"/>
-      <c r="AG27" s="98">
+      <c r="AF27" s="144">
+        <v>8079</v>
+      </c>
+      <c r="AG27" s="28">
+        <v>304</v>
+      </c>
+      <c r="AH27" s="28">
+        <v>173</v>
+      </c>
+      <c r="AI27" s="28">
+        <v>93</v>
+      </c>
+      <c r="AJ27" s="28">
+        <v>76</v>
+      </c>
+      <c r="AK27" s="28">
+        <v>53</v>
+      </c>
+      <c r="AL27" s="28">
+        <f t="shared" si="7"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AM27" s="28"/>
+      <c r="AN27" s="98">
         <v>7</v>
       </c>
-      <c r="AH27" s="28"/>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AO27" s="28"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>27</v>
       </c>
       <c r="B28" s="54"/>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="107" t="s">
         <v>382</v>
       </c>
-      <c r="D28" s="38" t="s">
-        <v>900</v>
+      <c r="D28" s="107" t="s">
+        <v>899</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>65</v>
@@ -6476,7 +7098,7 @@
         <v>60</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>250</v>
@@ -6545,25 +7167,47 @@
       <c r="AE28" s="2">
         <v>1</v>
       </c>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="97">
+      <c r="AF28" s="12">
+        <v>32782</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>167</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>255</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>48</v>
+      </c>
+      <c r="AJ28" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK28" s="2">
+        <v>94</v>
+      </c>
+      <c r="AL28" s="11">
+        <f t="shared" si="7"/>
+        <v>2.1</v>
+      </c>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="97">
         <v>16</v>
       </c>
-      <c r="AH28" s="2"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AO28" s="2"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>28</v>
       </c>
       <c r="B29" s="54"/>
-      <c r="C29" s="107" t="s">
+      <c r="C29" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="D29" s="107" t="s">
-        <v>901</v>
+      <c r="D29" s="38" t="s">
+        <v>900</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>142</v>
@@ -6575,7 +7219,7 @@
         <v>60</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>250</v>
@@ -6643,22 +7287,44 @@
       <c r="AE29" s="2">
         <v>0</v>
       </c>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="13">
+      <c r="AF29" s="12">
+        <v>23987</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>174</v>
+      </c>
+      <c r="AH29" s="2">
+        <v>126</v>
+      </c>
+      <c r="AI29" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ29" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK29" s="2">
+        <v>62</v>
+      </c>
+      <c r="AL29" s="11">
+        <f t="shared" si="7"/>
+        <v>2.4</v>
+      </c>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="13">
         <v>13</v>
       </c>
-      <c r="AH29" s="2"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AO29" s="2"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>29</v>
       </c>
       <c r="B30" s="54"/>
-      <c r="C30" s="107" t="s">
+      <c r="C30" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="D30" s="107" t="s">
-        <v>901</v>
+      <c r="D30" s="11" t="s">
+        <v>904</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>129</v>
@@ -6673,7 +7339,7 @@
         <v>70</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>242</v>
@@ -6746,15 +7412,39 @@
       <c r="AE30" s="2">
         <v>0</v>
       </c>
-      <c r="AF30" s="2" t="s">
+      <c r="AF30" s="12">
+        <v>10848</v>
+      </c>
+      <c r="AG30" s="2">
+        <v>147</v>
+      </c>
+      <c r="AH30" s="2">
+        <v>131</v>
+      </c>
+      <c r="AI30" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ30" s="2">
+        <v>49</v>
+      </c>
+      <c r="AK30" s="2">
+        <v>27</v>
+      </c>
+      <c r="AL30" s="11">
+        <f t="shared" si="7"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="AM30" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="AG30" s="97">
+      <c r="AN30" s="97">
         <v>13</v>
       </c>
-      <c r="AH30" s="2"/>
-    </row>
-    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO30" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -6763,7 +7453,7 @@
         <v>420</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>91</v>
@@ -6778,7 +7468,7 @@
         <v>70</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>249</v>
@@ -6851,15 +7541,37 @@
       <c r="AE31" s="2">
         <v>1</v>
       </c>
-      <c r="AF31" s="2" t="s">
+      <c r="AF31" s="12">
+        <v>16231</v>
+      </c>
+      <c r="AG31" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH31" s="2">
+        <v>152</v>
+      </c>
+      <c r="AI31" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ31" s="2">
+        <v>90</v>
+      </c>
+      <c r="AK31" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL31" s="11">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="AM31" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="AG31" s="97">
+      <c r="AN31" s="97">
         <v>11</v>
       </c>
-      <c r="AH31" s="2"/>
-    </row>
-    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO31" s="2"/>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -6868,7 +7580,7 @@
         <v>400</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>90</v>
@@ -6883,7 +7595,7 @@
         <v>70</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>253</v>
@@ -6952,24 +7664,46 @@
       <c r="AE32" s="2">
         <v>1</v>
       </c>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="97">
+      <c r="AF32" s="12">
+        <v>13589</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>195</v>
+      </c>
+      <c r="AH32" s="2">
+        <v>170</v>
+      </c>
+      <c r="AI32" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ32" s="2">
+        <v>89</v>
+      </c>
+      <c r="AK32" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL32" s="11">
+        <f t="shared" si="7"/>
+        <v>4.8</v>
+      </c>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="97">
         <v>17</v>
       </c>
-      <c r="AH32" s="2" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO32" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>32</v>
       </c>
       <c r="B33" s="54"/>
-      <c r="C33" s="107" t="s">
+      <c r="C33" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="D33" s="107" t="s">
-        <v>901</v>
+      <c r="D33" s="38" t="s">
+        <v>900</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>141</v>
@@ -6984,10 +7718,10 @@
         <v>70</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="K33" s="2">
         <v>1</v>
@@ -7055,11 +7789,33 @@
       <c r="AE33" s="2">
         <v>1</v>
       </c>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="13"/>
-      <c r="AH33" s="2"/>
-    </row>
-    <row r="34" spans="1:34" s="84" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AF33" s="12">
+        <v>26749</v>
+      </c>
+      <c r="AG33" s="2">
+        <v>179</v>
+      </c>
+      <c r="AH33" s="2">
+        <v>222</v>
+      </c>
+      <c r="AI33" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ33" s="2">
+        <v>252</v>
+      </c>
+      <c r="AK33" s="2">
+        <v>95</v>
+      </c>
+      <c r="AL33" s="11">
+        <f t="shared" si="7"/>
+        <v>3.2</v>
+      </c>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="13"/>
+      <c r="AO33" s="2"/>
+    </row>
+    <row r="34" spans="1:41" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -7068,7 +7824,7 @@
         <v>388</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>76</v>
@@ -7083,7 +7839,7 @@
         <v>60</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>249</v>
@@ -7152,13 +7908,35 @@
       <c r="AE34" s="2">
         <v>3</v>
       </c>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="97">
+      <c r="AF34" s="12">
+        <v>26349</v>
+      </c>
+      <c r="AG34" s="2">
+        <v>190</v>
+      </c>
+      <c r="AH34" s="2">
+        <v>262</v>
+      </c>
+      <c r="AI34" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ34" s="2">
+        <v>196</v>
+      </c>
+      <c r="AK34" s="2">
+        <v>85</v>
+      </c>
+      <c r="AL34" s="11">
+        <f t="shared" si="7"/>
+        <v>3.1</v>
+      </c>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="97">
         <v>8</v>
       </c>
-      <c r="AH34" s="2"/>
-    </row>
-    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO34" s="2"/>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -7167,7 +7945,7 @@
         <v>357</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E35" s="31" t="s">
         <v>58</v>
@@ -7182,7 +7960,7 @@
         <v>60</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J35" s="31"/>
       <c r="K35" s="31"/>
@@ -7245,11 +8023,33 @@
       <c r="AE35" s="31">
         <v>0</v>
       </c>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="104"/>
-      <c r="AH35" s="31"/>
-    </row>
-    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AF35" s="82">
+        <v>15928</v>
+      </c>
+      <c r="AG35" s="31">
+        <v>122</v>
+      </c>
+      <c r="AH35" s="31">
+        <v>87</v>
+      </c>
+      <c r="AI35" s="31">
+        <v>29</v>
+      </c>
+      <c r="AJ35" s="31">
+        <v>75</v>
+      </c>
+      <c r="AK35" s="31">
+        <v>43</v>
+      </c>
+      <c r="AL35" s="31">
+        <f t="shared" si="7"/>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="104"/>
+      <c r="AO35" s="31"/>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -7258,7 +8058,7 @@
         <v>113</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E36" s="71" t="s">
         <v>139</v>
@@ -7273,7 +8073,7 @@
         <v>50</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J36" s="71" t="s">
         <v>245</v>
@@ -7342,15 +8142,37 @@
       <c r="AE36" s="31">
         <v>0</v>
       </c>
-      <c r="AF36" s="71"/>
-      <c r="AG36" s="99">
+      <c r="AF36" s="82">
+        <v>5976</v>
+      </c>
+      <c r="AG36" s="31">
+        <v>174</v>
+      </c>
+      <c r="AH36" s="31">
+        <v>126</v>
+      </c>
+      <c r="AI36" s="31">
+        <v>63</v>
+      </c>
+      <c r="AJ36" s="31">
+        <v>55</v>
+      </c>
+      <c r="AK36" s="31">
+        <v>37</v>
+      </c>
+      <c r="AL36" s="31">
+        <f t="shared" si="7"/>
+        <v>7.6</v>
+      </c>
+      <c r="AM36" s="71"/>
+      <c r="AN36" s="99">
         <v>6</v>
       </c>
-      <c r="AH36" s="71" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO36" s="71" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -7359,10 +8181,10 @@
         <v>225</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>54</v>
@@ -7374,7 +8196,7 @@
         <v>70</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>242</v>
@@ -7443,15 +8265,37 @@
       <c r="AE37" s="2">
         <v>13</v>
       </c>
-      <c r="AF37" s="2" t="s">
+      <c r="AF37" s="12">
+        <v>30313</v>
+      </c>
+      <c r="AG37" s="2">
+        <v>146</v>
+      </c>
+      <c r="AH37" s="2">
+        <v>311</v>
+      </c>
+      <c r="AI37" s="2">
+        <v>48</v>
+      </c>
+      <c r="AJ37" s="2">
+        <v>391</v>
+      </c>
+      <c r="AK37" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL37" s="11">
+        <f t="shared" si="7"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="AM37" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="AG37" s="97">
+      <c r="AN37" s="97">
         <v>23</v>
       </c>
-      <c r="AH37" s="2"/>
-    </row>
-    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO37" s="2"/>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -7460,7 +8304,7 @@
         <v>377</v>
       </c>
       <c r="D38" s="107" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>206</v>
@@ -7475,7 +8319,7 @@
         <v>20</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>336</v>
@@ -7546,17 +8390,39 @@
       <c r="AE38" s="2">
         <v>2</v>
       </c>
-      <c r="AF38" s="2" t="s">
+      <c r="AF38" s="12">
+        <v>24949</v>
+      </c>
+      <c r="AG38" s="2">
+        <v>195</v>
+      </c>
+      <c r="AH38" s="2">
+        <v>247</v>
+      </c>
+      <c r="AI38" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ38" s="2">
+        <v>164</v>
+      </c>
+      <c r="AK38" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL38" s="11">
+        <f t="shared" si="7"/>
+        <v>3.1</v>
+      </c>
+      <c r="AM38" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="AG38" s="97">
+      <c r="AN38" s="97">
         <v>17</v>
       </c>
-      <c r="AH38" s="2" t="s">
+      <c r="AO38" s="2" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -7565,13 +8431,13 @@
         <v>383</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>55</v>
@@ -7580,7 +8446,7 @@
         <v>60</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>725</v>
@@ -7649,13 +8515,35 @@
       <c r="AE39" s="2">
         <v>3</v>
       </c>
-      <c r="AF39" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="2"/>
-    </row>
-    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AF39" s="12">
+        <v>18186</v>
+      </c>
+      <c r="AG39" s="2">
+        <v>163</v>
+      </c>
+      <c r="AH39" s="2">
+        <v>140</v>
+      </c>
+      <c r="AI39" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ39" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK39" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL39" s="11">
+        <f t="shared" si="7"/>
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="AM39" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="AN39" s="13"/>
+      <c r="AO39" s="2"/>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -7664,7 +8552,7 @@
         <v>20</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>83</v>
@@ -7679,7 +8567,7 @@
         <v>60</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>242</v>
@@ -7748,13 +8636,35 @@
       <c r="AE40" s="2">
         <v>2</v>
       </c>
-      <c r="AF40" s="2"/>
-      <c r="AG40" s="97">
+      <c r="AF40" s="12">
+        <v>25658</v>
+      </c>
+      <c r="AG40" s="2">
+        <v>154</v>
+      </c>
+      <c r="AH40" s="2">
+        <v>299</v>
+      </c>
+      <c r="AI40" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ40" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK40" s="2">
+        <v>111</v>
+      </c>
+      <c r="AL40" s="11">
+        <f t="shared" si="7"/>
+        <v>3.1</v>
+      </c>
+      <c r="AM40" s="2"/>
+      <c r="AN40" s="97">
         <v>21</v>
       </c>
-      <c r="AH40" s="2"/>
-    </row>
-    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO40" s="2"/>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -7763,7 +8673,7 @@
         <v>112</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>138</v>
@@ -7778,7 +8688,7 @@
         <v>40</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>250</v>
@@ -7851,17 +8761,39 @@
       <c r="AE41" s="2">
         <v>1</v>
       </c>
-      <c r="AF41" s="2" t="s">
+      <c r="AF41" s="12">
+        <v>18072</v>
+      </c>
+      <c r="AG41" s="2">
+        <v>116</v>
+      </c>
+      <c r="AH41" s="2">
+        <v>144</v>
+      </c>
+      <c r="AI41" s="2">
+        <v>24</v>
+      </c>
+      <c r="AJ41" s="2">
+        <v>85</v>
+      </c>
+      <c r="AK41" s="2">
+        <v>56</v>
+      </c>
+      <c r="AL41" s="11">
+        <f t="shared" si="7"/>
+        <v>2.4</v>
+      </c>
+      <c r="AM41" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="AG41" s="97">
+      <c r="AN41" s="97">
         <v>17</v>
       </c>
-      <c r="AH41" s="2" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO41" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -7870,13 +8802,13 @@
         <v>431</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G42" s="31" t="s">
         <v>55</v>
@@ -7885,10 +8817,10 @@
         <v>70</v>
       </c>
       <c r="I42" s="31" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J42" s="31" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K42" s="31">
         <v>1</v>
@@ -7954,11 +8886,33 @@
       <c r="AE42" s="31">
         <v>0</v>
       </c>
-      <c r="AF42" s="31"/>
-      <c r="AG42" s="104"/>
-      <c r="AH42" s="31"/>
-    </row>
-    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AF42" s="82">
+        <v>8686</v>
+      </c>
+      <c r="AG42" s="31">
+        <v>135</v>
+      </c>
+      <c r="AH42" s="31">
+        <v>139</v>
+      </c>
+      <c r="AI42" s="31">
+        <v>38</v>
+      </c>
+      <c r="AJ42" s="31">
+        <v>62</v>
+      </c>
+      <c r="AK42" s="31">
+        <v>22</v>
+      </c>
+      <c r="AL42" s="31">
+        <f t="shared" si="7"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AM42" s="31"/>
+      <c r="AN42" s="104"/>
+      <c r="AO42" s="31"/>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -7967,7 +8921,7 @@
         <v>399</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E43" s="31" t="s">
         <v>71</v>
@@ -7982,7 +8936,7 @@
         <v>50</v>
       </c>
       <c r="I43" s="31" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J43" s="31" t="s">
         <v>245</v>
@@ -8051,15 +9005,37 @@
       <c r="AE43" s="31">
         <v>10</v>
       </c>
-      <c r="AF43" s="31"/>
-      <c r="AG43" s="95">
+      <c r="AF43" s="82">
+        <v>24454</v>
+      </c>
+      <c r="AG43" s="31">
+        <v>153</v>
+      </c>
+      <c r="AH43" s="31">
+        <v>255</v>
+      </c>
+      <c r="AI43" s="31">
+        <v>67</v>
+      </c>
+      <c r="AJ43" s="31">
+        <v>228</v>
+      </c>
+      <c r="AK43" s="31">
+        <v>129</v>
+      </c>
+      <c r="AL43" s="31">
+        <f t="shared" si="7"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="AM43" s="31"/>
+      <c r="AN43" s="95">
         <v>13</v>
       </c>
-      <c r="AH43" s="31" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO43" s="31" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -8068,13 +9044,13 @@
         <v>384</v>
       </c>
       <c r="D44" s="107" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>55</v>
@@ -8083,7 +9059,7 @@
         <v>60</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>250</v>
@@ -8150,11 +9126,33 @@
       <c r="AE44" s="2">
         <v>2</v>
       </c>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="13"/>
-      <c r="AH44" s="2"/>
-    </row>
-    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AF44" s="12">
+        <v>13936</v>
+      </c>
+      <c r="AG44" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH44" s="2">
+        <v>125</v>
+      </c>
+      <c r="AI44" s="2">
+        <v>26</v>
+      </c>
+      <c r="AJ44" s="2">
+        <v>66</v>
+      </c>
+      <c r="AK44" s="2">
+        <v>52</v>
+      </c>
+      <c r="AL44" s="11">
+        <f t="shared" si="7"/>
+        <v>2.4</v>
+      </c>
+      <c r="AM44" s="2"/>
+      <c r="AN44" s="13"/>
+      <c r="AO44" s="2"/>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -8163,7 +9161,7 @@
         <v>32</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>95</v>
@@ -8178,10 +9176,10 @@
         <v>60</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -8247,26 +9245,46 @@
       <c r="AE45" s="2">
         <v>10</v>
       </c>
-      <c r="AF45" s="2"/>
-      <c r="AG45" s="97">
+      <c r="AF45" s="12">
+        <v>23190</v>
+      </c>
+      <c r="AG45" s="2">
+        <v>207</v>
+      </c>
+      <c r="AH45" s="2">
+        <v>403</v>
+      </c>
+      <c r="AI45" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ45" s="2">
+        <v>324</v>
+      </c>
+      <c r="AK45" s="2">
+        <v>120</v>
+      </c>
+      <c r="AL45" s="11">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AM45" s="2"/>
+      <c r="AN45" s="97">
         <v>20</v>
       </c>
-      <c r="AH45" s="2" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:34" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AO45" s="2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
     </row>
-    <row r="49" spans="3:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH49" xr:uid="{9FC9252B-91B4-44BA-9BBA-57F11D395F7B}">
+  <autoFilter ref="A1:AO49" xr:uid="{9FC9252B-91B4-44BA-9BBA-57F11D395F7B}">
     <filterColumn colId="3">
       <filters>
         <filter val="ND"/>
@@ -8276,18 +9294,18 @@
     </filterColumn>
     <filterColumn colId="8">
       <filters>
-        <filter val="Moderate"/>
+        <filter val="Safe"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:AH49">
+  <sortState ref="A2:AO49">
     <sortCondition ref="S2:S49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B1816092-53A6-4AD3-91E3-95353F7AF8D0}">
           <x14:formula1>
             <xm:f>Reference!$A$3:$A$5</xm:f>
@@ -8319,40 +9337,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="140" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="133" t="s">
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="136" t="s">
         <v>593</v>
       </c>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
     </row>
     <row r="2" spans="1:29" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="133"/>
-      <c r="B2" s="133"/>
+      <c r="A2" s="136"/>
+      <c r="B2" s="136"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
@@ -15754,18 +16772,18 @@
   <sheetData>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>363</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>7</v>
@@ -15773,7 +16791,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>373</v>
@@ -15781,7 +16799,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>118</v>
@@ -16003,7 +17021,7 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16030,49 +17048,49 @@
         <v>363</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>881</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>883</v>
-      </c>
       <c r="I1" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>890</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>892</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -16785,7 +17803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>11</v>
       </c>
@@ -16944,7 +17962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>12</v>
       </c>
@@ -17103,7 +18121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>37</v>
       </c>
@@ -17156,7 +18174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>39</v>
       </c>
@@ -17254,7 +18272,7 @@
       <c r="P24" s="12"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>13</v>
       </c>
@@ -17466,7 +18484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>1</v>
       </c>
@@ -17519,7 +18537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>3</v>
       </c>
@@ -17617,7 +18635,7 @@
       <c r="P31" s="12"/>
       <c r="Q31" s="2"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>8</v>
       </c>
@@ -17723,7 +18741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>34</v>
       </c>
@@ -17776,7 +18794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>5</v>
       </c>
@@ -17874,7 +18892,7 @@
       <c r="P36" s="12"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>43</v>
       </c>
@@ -17927,7 +18945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>32</v>
       </c>
@@ -18086,7 +19104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>38</v>
       </c>
@@ -18184,7 +19202,7 @@
       <c r="P42" s="12"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>36</v>
       </c>
@@ -18335,7 +19353,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B48" s="31" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C48" s="31">
         <f>ROUND(AVERAGE(C2:C45), 2)</f>
@@ -18402,13 +19420,13 @@
   <autoFilter ref="A1:Q45" xr:uid="{8DE8F408-EFC7-49B1-9477-788FC1841393}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Carnegie Mellon University"/>
-        <filter val="Cornell University"/>
-        <filter val="Georgia Institute of Technology"/>
-        <filter val="University of California - Los Angeles"/>
-        <filter val="University of California - San Diego"/>
-        <filter val="University of Maryland - College Park"/>
-        <filter val="University of Southern California"/>
+        <filter val="Arizona State University"/>
+        <filter val="Northeastern University"/>
+        <filter val="Texas A&amp;M University"/>
+        <filter val="University of Colorado Boulder"/>
+        <filter val="University of Minnesota - Twin Cities"/>
+        <filter val="University of Pittsburgh"/>
+        <filter val="University of Utah"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -18422,10 +19440,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2BFD99-736A-4752-B865-CA8A7D3BCDC4}">
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18449,7 +19467,7 @@
         <v>33</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
@@ -18457,7 +19475,7 @@
         <v>201</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D48" s="2"/>
     </row>
@@ -18466,7 +19484,7 @@
         <v>431</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D49" s="2"/>
     </row>
@@ -18475,147 +19493,147 @@
         <v>383</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="109"/>
       <c r="C51" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="123" t="s">
+      <c r="B52" s="117" t="s">
         <v>357</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="118"/>
+      <c r="C53" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="124"/>
-      <c r="C53" s="5" t="s">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="119"/>
+      <c r="C54" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="125"/>
-      <c r="C54" s="5" t="s">
-        <v>867</v>
-      </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="109" t="s">
+      <c r="B55" s="117" t="s">
         <v>351</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="118"/>
+      <c r="C56" s="5" t="s">
         <v>856</v>
       </c>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="109"/>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="118"/>
+      <c r="C57" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="109"/>
-      <c r="C57" s="5" t="s">
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="118"/>
+      <c r="C58" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="109"/>
-      <c r="C58" s="5" t="s">
-        <v>859</v>
-      </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="119"/>
+      <c r="C59" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="109" t="s">
         <v>389</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="109"/>
       <c r="C60" s="5" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="115" t="s">
+      <c r="B61" s="109"/>
+      <c r="C61" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="121" t="s">
+        <v>823</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="121"/>
+      <c r="C63" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="121" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="121"/>
+      <c r="C65" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="115"/>
-      <c r="C62" s="5" t="s">
-        <v>825</v>
-      </c>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="115" t="s">
-        <v>225</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>826</v>
-      </c>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="115"/>
-      <c r="C64" s="5" t="s">
-        <v>823</v>
-      </c>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="109" t="s">
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="109" t="s">
         <v>400</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="109"/>
+      <c r="C67" s="5" t="s">
         <v>820</v>
       </c>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="109"/>
-      <c r="C66" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="109" t="s">
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="109" t="s">
         <v>382</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>817</v>
-      </c>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="109"/>
       <c r="C68" s="5" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D68" s="2"/>
     </row>
@@ -18627,306 +19645,306 @@
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="109" t="s">
+      <c r="B70" s="109"/>
+      <c r="C70" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="109" t="s">
         <v>402</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>809</v>
-      </c>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="109"/>
       <c r="C71" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="109"/>
       <c r="C72" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="109"/>
       <c r="C73" s="5" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="109"/>
       <c r="C74" s="5" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="113" t="s">
+      <c r="B75" s="109"/>
+      <c r="C75" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="113" t="s">
         <v>417</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="113"/>
       <c r="C76" s="5" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="113"/>
       <c r="C77" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="113"/>
       <c r="C78" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="113"/>
       <c r="C79" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B80" s="109" t="s">
+      <c r="B80" s="113"/>
+      <c r="C80" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B81" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C81" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="109"/>
+      <c r="C82" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="109"/>
-      <c r="C81" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="110" t="s">
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>794</v>
-      </c>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="111"/>
       <c r="C83" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="111"/>
       <c r="C84" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="111"/>
       <c r="C85" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="111"/>
+      <c r="C86" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="112"/>
+      <c r="C87" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="112"/>
-      <c r="C86" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="113" t="s">
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="113"/>
       <c r="C88" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="113"/>
       <c r="C89" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D89" s="2"/>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="113"/>
       <c r="C90" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D90" s="2"/>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="113"/>
       <c r="C91" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D91" s="2"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="113"/>
       <c r="C92" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="113"/>
       <c r="C93" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="123" t="s">
+      <c r="B94" s="113"/>
+      <c r="C94" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="117" t="s">
         <v>390</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="125"/>
       <c r="C95" s="5" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="D95" s="2"/>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="119"/>
+      <c r="C96" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="123" t="s">
+      <c r="C97" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="117" t="s">
         <v>379</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C98" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="124"/>
-      <c r="C98" s="5" t="s">
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="118"/>
+      <c r="C99" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="118"/>
+      <c r="C100" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="124"/>
-      <c r="C99" s="5" t="s">
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="118"/>
+      <c r="C101" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="124"/>
-      <c r="C100" s="5" t="s">
-        <v>779</v>
-      </c>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="125"/>
-      <c r="C101" s="5" t="s">
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="119"/>
+      <c r="C102" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="109" t="s">
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="109" t="s">
         <v>375</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="109"/>
       <c r="C103" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="D103" s="2"/>
+        <v>767</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="109"/>
       <c r="C104" s="5" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D104" s="2"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="109"/>
       <c r="C105" s="5" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D105" s="2"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="109"/>
       <c r="C106" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="38" t="s">
+      <c r="B107" s="109"/>
+      <c r="C107" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="109" t="s">
+      <c r="C108" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="109" t="s">
         <v>373</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="109"/>
       <c r="C109" s="5" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D109" s="2"/>
     </row>
@@ -18940,739 +19958,746 @@
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="109"/>
       <c r="C111" s="5" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D111" s="2"/>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="109"/>
       <c r="C112" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D112" s="2"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="109"/>
       <c r="C113" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D113" s="2"/>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="109"/>
       <c r="C114" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D114" s="2"/>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="109"/>
       <c r="C115" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D115" s="2"/>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="37" t="s">
+      <c r="B116" s="109"/>
+      <c r="C116" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C117" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B117" s="2" t="s">
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B118" s="120" t="s">
+      <c r="C118" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="114" t="s">
         <v>110</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C119" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B119" s="121"/>
-      <c r="C119" s="5" t="s">
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="115"/>
+      <c r="C120" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B120" s="121"/>
-      <c r="C120" s="5" t="s">
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="115"/>
+      <c r="C121" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B122" s="115"/>
+      <c r="C122" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B121" s="121"/>
-      <c r="C121" s="5" t="s">
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B123" s="115"/>
+      <c r="C123" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B122" s="121"/>
-      <c r="C122" s="5" t="s">
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="115"/>
+      <c r="C124" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B123" s="121"/>
-      <c r="C123" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="122"/>
-      <c r="C124" s="5" t="s">
-        <v>850</v>
-      </c>
       <c r="D124" s="2"/>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B125" s="109" t="s">
+      <c r="B125" s="116"/>
+      <c r="C125" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="109" t="s">
         <v>397</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C126" s="5" t="s">
         <v>736</v>
-      </c>
-      <c r="D125" s="2"/>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="109"/>
-      <c r="C126" s="5" t="s">
-        <v>737</v>
       </c>
       <c r="D126" s="2"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="109"/>
       <c r="C127" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D127" s="2"/>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="109"/>
       <c r="C128" s="5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D128" s="2"/>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="109"/>
       <c r="C129" s="5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D129" s="2"/>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="109"/>
       <c r="C130" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="109"/>
+      <c r="C131" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="D130" s="2"/>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="109" t="s">
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="C132" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B132" s="109"/>
-      <c r="C132" s="5" t="s">
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="109"/>
+      <c r="C133" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="49" t="s">
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="49" t="s">
         <v>731</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C134" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="D133" s="2"/>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B134" s="109" t="s">
+      <c r="D134" s="2"/>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C135" s="5" t="s">
         <v>720</v>
-      </c>
-      <c r="D134" s="2"/>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="109"/>
-      <c r="C135" s="5" t="s">
-        <v>721</v>
       </c>
       <c r="D135" s="2"/>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" s="109"/>
       <c r="C136" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D136" s="2"/>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="109"/>
       <c r="C137" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D137" s="2"/>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" s="109"/>
       <c r="C138" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D138" s="2"/>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" s="109"/>
       <c r="C139" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D139" s="2"/>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" s="109"/>
       <c r="C140" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D140" s="2"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" s="109"/>
       <c r="C141" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D141" s="2"/>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" s="109"/>
       <c r="C142" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D142" s="2"/>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" s="109"/>
       <c r="C143" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="D143" s="2"/>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="109"/>
+      <c r="C144" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="D143" s="2"/>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B144" s="109" t="s">
+      <c r="D144" s="2"/>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" s="109" t="s">
         <v>407</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C145" s="5" t="s">
         <v>717</v>
-      </c>
-      <c r="D144" s="2"/>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B145" s="109"/>
-      <c r="C145" s="5" t="s">
-        <v>718</v>
       </c>
       <c r="D145" s="2"/>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" s="109"/>
       <c r="C146" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="D146" s="2"/>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="109"/>
+      <c r="C147" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="D146" s="2"/>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B147" s="2" t="s">
+      <c r="D147" s="2"/>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C148" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="D147" s="2"/>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B148" s="115" t="s">
+      <c r="D148" s="2"/>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" s="121" t="s">
         <v>378</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C149" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B149" s="115"/>
-      <c r="C149" s="5" t="s">
+      <c r="D149" s="2"/>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="121"/>
+      <c r="C150" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="D149" s="2"/>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B150" s="115"/>
-      <c r="C150" s="5" t="s">
+      <c r="D150" s="2"/>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="121"/>
+      <c r="C151" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="D150" s="2"/>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B151" s="115"/>
-      <c r="C151" s="5" t="s">
+      <c r="D151" s="2"/>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" s="121"/>
+      <c r="C152" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="D151" s="2"/>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B152" s="115"/>
-      <c r="C152" s="5" t="s">
+      <c r="D152" s="2"/>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B153" s="121"/>
+      <c r="C153" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="D152" s="2"/>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B153" s="115"/>
-      <c r="C153" s="5" t="s">
+      <c r="D153" s="2"/>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" s="121"/>
+      <c r="C154" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="D153" s="2"/>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B154" s="114" t="s">
+      <c r="D154" s="2"/>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C155" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="D154" s="2"/>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B155" s="114"/>
-      <c r="C155" s="5" t="s">
+      <c r="D155" s="2"/>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" s="120"/>
+      <c r="C156" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="D155" s="2"/>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B156" s="114"/>
-      <c r="C156" s="5" t="s">
+      <c r="D156" s="2"/>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" s="120"/>
+      <c r="C157" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="D156" s="2"/>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="109" t="s">
+      <c r="D157" s="2"/>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C158" s="5" t="s">
         <v>692</v>
-      </c>
-      <c r="D157" s="2"/>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B158" s="109"/>
-      <c r="C158" s="5" t="s">
-        <v>693</v>
       </c>
       <c r="D158" s="2"/>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" s="109"/>
       <c r="C159" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D159" s="2"/>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" s="109"/>
       <c r="C160" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D160" s="2"/>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" s="109"/>
       <c r="C161" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D161" s="2"/>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" s="109"/>
       <c r="C162" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D162" s="2"/>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" s="109"/>
       <c r="C163" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D163" s="2"/>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" s="109"/>
       <c r="C164" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D164" s="2"/>
     </row>
-    <row r="165" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" s="109"/>
       <c r="C165" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="D165" s="2"/>
+    </row>
+    <row r="166" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B166" s="109"/>
+      <c r="C166" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="D165" s="2"/>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" s="116" t="s">
+      <c r="D166" s="2"/>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B167" s="122" t="s">
         <v>119</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C167" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="D166" s="2"/>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B167" s="116"/>
-      <c r="C167" s="5" t="s">
+      <c r="D167" s="2"/>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B168" s="122"/>
+      <c r="C168" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="D167" s="2"/>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B168" s="118" t="s">
+      <c r="D168" s="2"/>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B169" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C169" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="D168" s="2"/>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B169" s="118"/>
-      <c r="C169" s="5" t="s">
+      <c r="D169" s="2"/>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170" s="124"/>
+      <c r="C170" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="D169" s="2"/>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B170" s="118"/>
-      <c r="C170" s="5" t="s">
+      <c r="D170" s="2"/>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171" s="124"/>
+      <c r="C171" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="D170" s="2"/>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B171" s="118"/>
-      <c r="C171" s="5" t="s">
+      <c r="D171" s="2"/>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172" s="124"/>
+      <c r="C172" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="D171" s="2"/>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B172" s="109" t="s">
+      <c r="D172" s="2"/>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B173" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="C173" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="D172" s="2"/>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B173" s="109"/>
-      <c r="C173" s="5" t="s">
+      <c r="D173" s="2"/>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174" s="109"/>
+      <c r="C174" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="D173" s="2"/>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B174" s="116" t="s">
+      <c r="D174" s="2"/>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B175" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="C175" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="D174" s="2"/>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B175" s="116"/>
-      <c r="C175" s="5" t="s">
+      <c r="D175" s="2"/>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176" s="122"/>
+      <c r="C176" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="D175" s="2"/>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B176" s="116"/>
-      <c r="C176" s="5" t="s">
+      <c r="D176" s="2"/>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177" s="122"/>
+      <c r="C177" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="D176" s="2"/>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B177" s="116"/>
-      <c r="C177" s="5" t="s">
+      <c r="D177" s="2"/>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" s="122"/>
+      <c r="C178" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="D177" s="2"/>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B178" s="116"/>
-      <c r="C178" s="5" t="s">
+      <c r="D178" s="2"/>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" s="122"/>
+      <c r="C179" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="D178" s="2"/>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B179" s="116"/>
-      <c r="C179" s="5" t="s">
+      <c r="D179" s="2"/>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180" s="122"/>
+      <c r="C180" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="D179" s="2"/>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B180" s="116"/>
-      <c r="C180" s="5" t="s">
+      <c r="D180" s="2"/>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" s="122"/>
+      <c r="C181" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="D180" s="2"/>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B181" s="140" t="s">
+      <c r="D181" s="2"/>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182" s="126" t="s">
         <v>123</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C182" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="D181" s="2"/>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B182" s="141"/>
-      <c r="C182" s="5" t="s">
+      <c r="D182" s="2"/>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B183" s="127"/>
+      <c r="C183" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="D182" s="2"/>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B183" s="141"/>
-      <c r="C183" s="5" t="s">
+      <c r="D183" s="2"/>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B184" s="127"/>
+      <c r="C184" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="D184" s="2"/>
+    </row>
+    <row r="185" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B185" s="128"/>
+      <c r="C185" s="5" t="s">
         <v>910</v>
       </c>
-      <c r="D183" s="2"/>
-    </row>
-    <row r="184" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B184" s="142"/>
-      <c r="C184" s="5" t="s">
-        <v>911</v>
-      </c>
-      <c r="D184" s="2"/>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B185" s="117" t="s">
+      <c r="D185" s="2"/>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B186" s="123" t="s">
         <v>124</v>
       </c>
-      <c r="C185" s="5" t="s">
+      <c r="C186" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="D185" s="2"/>
-    </row>
-    <row r="186" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B186" s="117"/>
-      <c r="C186" s="5" t="s">
+      <c r="D186" s="2"/>
+    </row>
+    <row r="187" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B187" s="123"/>
+      <c r="C187" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D186" s="2"/>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B187" s="117"/>
-      <c r="C187" s="5" t="s">
+      <c r="D187" s="2"/>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B188" s="123"/>
+      <c r="C188" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="D187" s="2"/>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B188" s="117"/>
-      <c r="C188" s="5" t="s">
+      <c r="D188" s="2"/>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B189" s="123"/>
+      <c r="C189" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="D188" s="2"/>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B189" s="117"/>
-      <c r="C189" s="5" t="s">
+      <c r="D189" s="2"/>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190" s="123"/>
+      <c r="C190" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="D189" s="2"/>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B190" s="117"/>
-      <c r="C190" s="5" t="s">
+      <c r="D190" s="2"/>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B191" s="123"/>
+      <c r="C191" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="D190" s="2"/>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B191" s="109" t="s">
+      <c r="D191" s="2"/>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B192" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="C191" s="5" t="s">
+      <c r="C192" s="5" t="s">
         <v>658</v>
-      </c>
-      <c r="D191" s="2"/>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B192" s="109"/>
-      <c r="C192" s="83" t="s">
-        <v>657</v>
       </c>
       <c r="D192" s="2"/>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" s="109"/>
-      <c r="C193" s="5" t="s">
+      <c r="C193" s="83" t="s">
+        <v>657</v>
+      </c>
+      <c r="D193" s="2"/>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" s="109"/>
+      <c r="C194" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="D193" s="2"/>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B194" s="119" t="s">
+      <c r="D194" s="2"/>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="C194" s="5" t="s">
+      <c r="C195" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="D194" s="2"/>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B195" s="119"/>
-      <c r="C195" s="5" t="s">
+      <c r="D195" s="2"/>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196" s="125"/>
+      <c r="C196" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="D195" s="2"/>
-    </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B196" s="119"/>
-      <c r="C196" s="5" t="s">
+      <c r="D196" s="2"/>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197" s="125"/>
+      <c r="C197" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="D196" s="2"/>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B197" s="119"/>
-      <c r="C197" s="5" t="s">
+      <c r="D197" s="2"/>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198" s="125"/>
+      <c r="C198" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="D197" s="2"/>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B198" s="119"/>
-      <c r="C198" s="5" t="s">
+      <c r="D198" s="2"/>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" s="125"/>
+      <c r="C199" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="D198" s="2"/>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B199" s="119"/>
-      <c r="C199" s="5" t="s">
+      <c r="D199" s="2"/>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B200" s="125"/>
+      <c r="C200" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="D199" s="2"/>
-    </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B200" s="116" t="s">
+      <c r="D200" s="2"/>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B201" s="122" t="s">
         <v>377</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="C201" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="D200" s="2"/>
-    </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B201" s="116"/>
-      <c r="C201" s="5" t="s">
+      <c r="D201" s="2"/>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B202" s="122"/>
+      <c r="C202" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="D201" s="2"/>
-    </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B202" s="116"/>
-      <c r="C202" s="5" t="s">
+      <c r="D202" s="2"/>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B203" s="122"/>
+      <c r="C203" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="D202" s="2"/>
-    </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B203" s="116"/>
-      <c r="C203" s="5" t="s">
+      <c r="D203" s="2"/>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B204" s="122"/>
+      <c r="C204" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="D203" s="2"/>
-    </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B204" s="116"/>
-      <c r="C204" s="5" t="s">
+      <c r="D204" s="2"/>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B205" s="122"/>
+      <c r="C205" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="D204" s="2"/>
+      <c r="D205" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="34">
     <mergeCell ref="B52:B54"/>
     <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="B87:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B200:B204"/>
-    <mergeCell ref="B185:B190"/>
-    <mergeCell ref="B157:B165"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="B174:B180"/>
-    <mergeCell ref="B191:B193"/>
-    <mergeCell ref="B194:B199"/>
-    <mergeCell ref="B181:B184"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B148:B153"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="B134:B143"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="B125:B130"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B118:B124"/>
-    <mergeCell ref="B108:B115"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="B88:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B201:B205"/>
+    <mergeCell ref="B186:B191"/>
+    <mergeCell ref="B158:B166"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="B175:B181"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="B149:B154"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B135:B144"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B126:B131"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B119:B125"/>
+    <mergeCell ref="B109:B116"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="B98:B102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19714,7 +20739,7 @@
         <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -19722,19 +20747,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>839</v>
+      </c>
+      <c r="C2" t="s">
         <v>840</v>
-      </c>
-      <c r="C2" t="s">
-        <v>841</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -19742,7 +20767,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C3" t="s">
         <v>232</v>
@@ -19756,10 +20781,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>842</v>
+      </c>
+      <c r="D4" t="s">
         <v>843</v>
-      </c>
-      <c r="D4" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -19767,7 +20792,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C5" t="s">
         <v>232</v>
@@ -19776,10 +20801,10 @@
         <v>389</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -19787,7 +20812,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C6" t="s">
         <v>232</v>
@@ -19796,10 +20821,10 @@
         <v>351</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -19807,13 +20832,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C7" t="s">
         <v>232</v>
       </c>
       <c r="D7" s="101" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F7" s="14"/>
     </row>
@@ -19855,15 +20880,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="131" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -19922,7 +20947,7 @@
       <c r="A4" s="109">
         <v>1</v>
       </c>
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="129" t="s">
         <v>225</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -19953,7 +20978,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="109"/>
-      <c r="B5" s="126"/>
+      <c r="B5" s="129"/>
       <c r="C5" s="5" t="s">
         <v>239</v>
       </c>
@@ -19982,7 +21007,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="109"/>
-      <c r="B6" s="126"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="5" t="s">
         <v>269</v>
       </c>
@@ -20013,7 +21038,7 @@
       <c r="A7" s="109">
         <v>2</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="129" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -20056,7 +21081,7 @@
     </row>
     <row r="8" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="109"/>
-      <c r="B8" s="126"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="5" t="s">
         <v>236</v>
       </c>
@@ -20097,7 +21122,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="109"/>
-      <c r="B9" s="126"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="5" t="s">
         <v>226</v>
       </c>
@@ -20138,7 +21163,7 @@
     </row>
     <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="109"/>
-      <c r="B10" s="126"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="5" t="s">
         <v>237</v>
       </c>
@@ -20179,7 +21204,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="109"/>
-      <c r="B11" s="126"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="5" t="s">
         <v>228</v>
       </c>
@@ -20220,7 +21245,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="109"/>
-      <c r="B12" s="126"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="5" t="s">
         <v>229</v>
       </c>
@@ -20261,7 +21286,7 @@
     </row>
     <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="109"/>
-      <c r="B13" s="126"/>
+      <c r="B13" s="129"/>
       <c r="C13" s="5" t="s">
         <v>230</v>
       </c>
@@ -20302,7 +21327,7 @@
     </row>
     <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="109"/>
-      <c r="B14" s="126"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="5" t="s">
         <v>231</v>
       </c>
@@ -20407,7 +21432,7 @@
       <c r="A17" s="109">
         <v>4</v>
       </c>
-      <c r="B17" s="126" t="s">
+      <c r="B17" s="129" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -20434,7 +21459,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="109"/>
-      <c r="B18" s="126"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="5" t="s">
         <v>286</v>
       </c>
@@ -20459,7 +21484,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="109"/>
-      <c r="B19" s="126"/>
+      <c r="B19" s="129"/>
       <c r="C19" s="5" t="s">
         <v>287</v>
       </c>
@@ -20484,7 +21509,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="109"/>
-      <c r="B20" s="126"/>
+      <c r="B20" s="129"/>
       <c r="C20" s="5" t="s">
         <v>288</v>
       </c>
@@ -20540,7 +21565,7 @@
       <c r="A22" s="109">
         <v>6</v>
       </c>
-      <c r="B22" s="126" t="s">
+      <c r="B22" s="129" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -20569,7 +21594,7 @@
     </row>
     <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="109"/>
-      <c r="B23" s="126"/>
+      <c r="B23" s="129"/>
       <c r="C23" s="5" t="s">
         <v>300</v>
       </c>
@@ -20596,7 +21621,7 @@
       <c r="A24" s="109">
         <v>7</v>
       </c>
-      <c r="B24" s="126" t="s">
+      <c r="B24" s="129" t="s">
         <v>79</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -20623,7 +21648,7 @@
     </row>
     <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="109"/>
-      <c r="B25" s="126"/>
+      <c r="B25" s="129"/>
       <c r="C25" s="5" t="s">
         <v>302</v>
       </c>
@@ -20650,7 +21675,7 @@
     </row>
     <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="109"/>
-      <c r="B26" s="126"/>
+      <c r="B26" s="129"/>
       <c r="C26" s="5" t="s">
         <v>303</v>
       </c>
@@ -20677,7 +21702,7 @@
       <c r="A27" s="109">
         <v>8</v>
       </c>
-      <c r="B27" s="127" t="s">
+      <c r="B27" s="130" t="s">
         <v>107</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -20708,7 +21733,7 @@
     </row>
     <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="109"/>
-      <c r="B28" s="127"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="5" t="s">
         <v>307</v>
       </c>
@@ -20797,7 +21822,7 @@
       <c r="A31" s="109">
         <v>11</v>
       </c>
-      <c r="B31" s="130" t="s">
+      <c r="B31" s="133" t="s">
         <v>117</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -20824,7 +21849,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="109"/>
-      <c r="B32" s="130"/>
+      <c r="B32" s="133"/>
       <c r="C32" s="5" t="s">
         <v>705</v>
       </c>
@@ -20851,7 +21876,7 @@
       <c r="A33" s="109">
         <v>12</v>
       </c>
-      <c r="B33" s="130" t="s">
+      <c r="B33" s="133" t="s">
         <v>118</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -20880,7 +21905,7 @@
     </row>
     <row r="34" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="109"/>
-      <c r="B34" s="130"/>
+      <c r="B34" s="133"/>
       <c r="C34" s="5" t="s">
         <v>319</v>
       </c>
@@ -20909,7 +21934,7 @@
       <c r="A35" s="109">
         <v>13</v>
       </c>
-      <c r="B35" s="132" t="s">
+      <c r="B35" s="135" t="s">
         <v>120</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -20938,7 +21963,7 @@
     </row>
     <row r="36" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="109"/>
-      <c r="B36" s="132"/>
+      <c r="B36" s="135"/>
       <c r="C36" s="5" t="s">
         <v>325</v>
       </c>
@@ -20967,7 +21992,7 @@
       <c r="A37" s="109">
         <v>14</v>
       </c>
-      <c r="B37" s="130" t="s">
+      <c r="B37" s="133" t="s">
         <v>122</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -20992,7 +22017,7 @@
     </row>
     <row r="38" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="109"/>
-      <c r="B38" s="130"/>
+      <c r="B38" s="133"/>
       <c r="C38" s="5" t="s">
         <v>327</v>
       </c>
@@ -21019,7 +22044,7 @@
       <c r="A39" s="109">
         <v>15</v>
       </c>
-      <c r="B39" s="130" t="s">
+      <c r="B39" s="133" t="s">
         <v>123</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -21044,7 +22069,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="109"/>
-      <c r="B40" s="130"/>
+      <c r="B40" s="133"/>
       <c r="C40" s="5" t="s">
         <v>332</v>
       </c>
@@ -21067,7 +22092,7 @@
     </row>
     <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="109"/>
-      <c r="B41" s="130"/>
+      <c r="B41" s="133"/>
       <c r="C41" s="5" t="s">
         <v>333</v>
       </c>
@@ -21090,7 +22115,7 @@
     </row>
     <row r="42" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="109"/>
-      <c r="B42" s="130"/>
+      <c r="B42" s="133"/>
       <c r="C42" s="5" t="s">
         <v>334</v>
       </c>
@@ -21117,7 +22142,7 @@
       <c r="A43" s="109">
         <v>16</v>
       </c>
-      <c r="B43" s="130" t="s">
+      <c r="B43" s="133" t="s">
         <v>125</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -21144,7 +22169,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="109"/>
-      <c r="B44" s="130"/>
+      <c r="B44" s="133"/>
       <c r="C44" s="5" t="s">
         <v>331</v>
       </c>
@@ -21198,7 +22223,7 @@
       <c r="A46" s="109">
         <v>18</v>
       </c>
-      <c r="B46" s="131" t="s">
+      <c r="B46" s="134" t="s">
         <v>204</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -21225,7 +22250,7 @@
     </row>
     <row r="47" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="109"/>
-      <c r="B47" s="131"/>
+      <c r="B47" s="134"/>
       <c r="C47" s="5" t="s">
         <v>342</v>
       </c>
@@ -21252,7 +22277,7 @@
     </row>
     <row r="48" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="109"/>
-      <c r="B48" s="131"/>
+      <c r="B48" s="134"/>
       <c r="C48" s="5" t="s">
         <v>327</v>
       </c>
@@ -21277,7 +22302,7 @@
     </row>
     <row r="49" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="109"/>
-      <c r="B49" s="131"/>
+      <c r="B49" s="134"/>
       <c r="C49" s="46" t="s">
         <v>343</v>
       </c>
@@ -21356,7 +22381,7 @@
         <v>390</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>232</v>
@@ -21379,7 +22404,7 @@
       <c r="A53" s="109"/>
       <c r="B53" s="109"/>
       <c r="C53" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>232</v>
@@ -21406,7 +22431,7 @@
         <v>417</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>232</v>
@@ -21429,7 +22454,7 @@
       <c r="A55" s="109"/>
       <c r="B55" s="109"/>
       <c r="C55" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>232</v>
@@ -21449,17 +22474,17 @@
       <c r="Q55" s="5"/>
     </row>
     <row r="56" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="123">
+      <c r="A56" s="117">
         <v>22</v>
       </c>
-      <c r="B56" s="123" t="s">
+      <c r="B56" s="117" t="s">
         <v>402</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>814</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>815</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="5"/>
@@ -21476,13 +22501,13 @@
       <c r="Q56" s="5"/>
     </row>
     <row r="57" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="125"/>
-      <c r="B57" s="125"/>
+      <c r="A57" s="119"/>
+      <c r="B57" s="119"/>
       <c r="C57" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="5"/>
@@ -21551,8 +22576,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6921E6-897D-488E-9FDE-78B113EA6DFE}">
   <dimension ref="A1:AS75"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:H68"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21638,7 +22664,7 @@
         <v>594</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>615</v>
@@ -32707,8 +33733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCAA87D-63C3-4EC9-8874-7234BFBED7AB}">
   <dimension ref="A1:AA211"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="I194" sqref="I194"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32729,38 +33755,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="136" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="H1" s="134" t="s">
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="H1" s="137" t="s">
         <v>360</v>
       </c>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="O1" s="135" t="s">
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="O1" s="138" t="s">
         <v>361</v>
       </c>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="V1" s="136" t="s">
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="V1" s="139" t="s">
         <v>362</v>
       </c>
-      <c r="W1" s="136"/>
-      <c r="X1" s="136"/>
-      <c r="Y1" s="136"/>
-      <c r="Z1" s="136"/>
-      <c r="AA1" s="136"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="139"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -45648,10 +46674,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>55</v>
@@ -45927,10 +46953,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>55</v>
@@ -46051,7 +47077,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>127</v>
@@ -46640,7 +47666,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>142</v>
@@ -46733,7 +47759,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>92</v>
@@ -46919,7 +47945,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>136</v>
@@ -46981,7 +48007,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>82</v>
@@ -47043,10 +48069,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>55</v>
@@ -47074,7 +48100,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>94</v>
@@ -47198,7 +48224,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>68</v>
@@ -47229,7 +48255,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>54</v>
@@ -47388,8 +48414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2751EB1-6E06-4E62-AA4A-B8A7A6032DB3}">
   <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48689,7 +49715,7 @@
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="16" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -48710,7 +49736,7 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>258</v>
@@ -48773,7 +49799,7 @@
       </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="17" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -48784,7 +49810,7 @@
         <v>391</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>68</v>
@@ -48795,7 +49821,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -48860,7 +49886,7 @@
         <v>423</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>82</v>
@@ -48871,7 +49897,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -48947,7 +49973,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>254</v>
@@ -49018,7 +50044,7 @@
         <v>22</v>
       </c>
       <c r="AF19" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="20" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -49029,7 +50055,7 @@
         <v>395</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>92</v>
@@ -49040,7 +50066,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -49096,7 +50122,7 @@
       <c r="AD20" s="2"/>
       <c r="AE20" s="13"/>
       <c r="AF20" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="21" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -49120,7 +50146,7 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>246</v>
@@ -49214,7 +50240,7 @@
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>256</v>
@@ -49307,7 +50333,7 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>246</v>
@@ -49402,10 +50428,10 @@
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -49496,7 +50522,7 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>252</v>
@@ -49567,7 +50593,7 @@
         <v>11</v>
       </c>
       <c r="AF25" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>
